--- a/4 - KNN/KNN_Results.xlsx
+++ b/4 - KNN/KNN_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aris\Documents\Machine Learning Course\2020-21\Lectures\Lecture 5 - Instance-Based Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\06 - 12.11.20 - Μάθηση βασισμένη σε Παραδείγματα\exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84A9BA-D254-44DC-A0E6-2F2AEB697DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54BD7B-B4F7-4F07-84B7-2BD6ED279185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Number of neighbors</t>
   </si>
@@ -68,14 +68,101 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>any</t>
+    <t>0.816143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.796076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816058  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.802804</t>
+  </si>
+  <si>
+    <t>0.789238</t>
+  </si>
+  <si>
+    <t>0.780852</t>
+  </si>
+  <si>
+    <t>0.777461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>0.778998</t>
+  </si>
+  <si>
+    <t>0.811659</t>
+  </si>
+  <si>
+    <t>0.804902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.799891</t>
+  </si>
+  <si>
+    <t>0.802104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.778998</t>
+  </si>
+  <si>
+    <t>0.804175</t>
+  </si>
+  <si>
+    <t>0.801778</t>
+  </si>
+  <si>
+    <t>0.802904</t>
+  </si>
+  <si>
+    <t>Dropped columns with NaN</t>
+  </si>
+  <si>
+    <t>Filled columns with NaN</t>
+  </si>
+  <si>
+    <t>0.825112</t>
+  </si>
+  <si>
+    <t>0.822334</t>
+  </si>
+  <si>
+    <t>0.809198</t>
+  </si>
+  <si>
+    <t>0.814218</t>
+  </si>
+  <si>
+    <t>0.820628</t>
+  </si>
+  <si>
+    <t>0.814408</t>
+  </si>
+  <si>
+    <t>0.809240</t>
+  </si>
+  <si>
+    <t>0.811528</t>
+  </si>
+  <si>
+    <t>0.818258</t>
+  </si>
+  <si>
+    <t>0.803580</t>
+  </si>
+  <si>
+    <t>0.809010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +200,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -182,11 +277,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,9 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +334,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,98 +674,112 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D4" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -655,61 +787,341 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4 - KNN/KNN_Results.xlsx
+++ b/4 - KNN/KNN_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\06 - 12.11.20 - Μάθηση βασισμένη σε Παραδείγματα\exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgos\PycharmProjects\Machine_Learning_MSc_Exe_Repo\4 - KNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54BD7B-B4F7-4F07-84B7-2BD6ED279185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF797E-CCF4-4F06-BA27-D8A94A517F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="3240" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,10 +336,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,17 +675,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -891,17 +891,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">

--- a/4 - KNN/KNN_Results.xlsx
+++ b/4 - KNN/KNN_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgos\PycharmProjects\Machine_Learning_MSc_Exe_Repo\4 - KNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\06 - 12.11.20 - Μάθηση βασισμένη σε Παραδείγματα\exe\28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF797E-CCF4-4F06-BA27-D8A94A517F79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFFD829-C6EF-46CC-AD90-218ED6E0F94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="3240" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Number of neighbors</t>
   </si>
@@ -71,91 +71,118 @@
     <t>0.816143</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.796076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816058  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.802804</t>
-  </si>
-  <si>
-    <t>0.789238</t>
-  </si>
-  <si>
-    <t>0.780852</t>
-  </si>
-  <si>
-    <t>0.777461</t>
-  </si>
-  <si>
     <t xml:space="preserve">       </t>
   </si>
   <si>
-    <t>0.778998</t>
-  </si>
-  <si>
     <t>0.811659</t>
   </si>
   <si>
-    <t>0.804902</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.799891</t>
-  </si>
-  <si>
-    <t>0.802104</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.778998</t>
-  </si>
-  <si>
-    <t>0.804175</t>
-  </si>
-  <si>
-    <t>0.801778</t>
-  </si>
-  <si>
-    <t>0.802904</t>
-  </si>
-  <si>
     <t>Dropped columns with NaN</t>
   </si>
   <si>
     <t>Filled columns with NaN</t>
   </si>
   <si>
-    <t>0.825112</t>
-  </si>
-  <si>
-    <t>0.822334</t>
-  </si>
-  <si>
-    <t>0.809198</t>
-  </si>
-  <si>
-    <t>0.814218</t>
-  </si>
-  <si>
     <t>0.820628</t>
   </si>
   <si>
-    <t>0.814408</t>
-  </si>
-  <si>
-    <t>0.809240</t>
-  </si>
-  <si>
-    <t>0.811528</t>
-  </si>
-  <si>
-    <t>0.818258</t>
-  </si>
-  <si>
-    <t>0.803580</t>
-  </si>
-  <si>
     <t>0.809010</t>
+  </si>
+  <si>
+    <t>0.818202</t>
+  </si>
+  <si>
+    <t>0.794189</t>
+  </si>
+  <si>
+    <t>0.801795</t>
+  </si>
+  <si>
+    <t>0.777192</t>
+  </si>
+  <si>
+    <t>0.788907</t>
+  </si>
+  <si>
+    <t>0.773779</t>
+  </si>
+  <si>
+    <t>0.775785</t>
+  </si>
+  <si>
+    <t>0.808456</t>
+  </si>
+  <si>
+    <t>0.794231</t>
+  </si>
+  <si>
+    <t>0.799460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.794231  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808456  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788907  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.777192  </t>
+  </si>
+  <si>
+    <t>0.799641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790416  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823389  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.816143</t>
+  </si>
+  <si>
+    <t>0.779303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773646  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790295  </t>
+  </si>
+  <si>
+    <t>0.793722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.803580  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818258  </t>
+  </si>
+  <si>
+    <t>0.782337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779306  </t>
+  </si>
+  <si>
+    <t>0.786661</t>
+  </si>
+  <si>
+    <t>0.807127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.799807  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822117  </t>
+  </si>
+  <si>
+    <t>0.773646</t>
+  </si>
+  <si>
+    <t>0.790295</t>
   </si>
 </sst>
 </file>
@@ -656,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -727,22 +754,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -759,19 +786,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -785,22 +812,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,22 +841,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,19 +873,19 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -875,24 +902,24 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -943,22 +970,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="I11" s="11">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,22 +999,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I12" s="11">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,22 +1028,22 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1030,22 +1057,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1062,19 +1089,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,29 +1118,24 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
